--- a/sbs/openai_davinci_003_wortega_instruct_rugpt_large.xlsx
+++ b/sbs/openai_davinci_003_wortega_instruct_rugpt_large.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexkuk/proj/rulm-sbs/sbs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC0DEF2-A56E-DA47-B8E9-23C49C67CDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25601DF-E3A2-CA42-AA5E-AB9DA78F46DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="212">
   <si>
     <t>id</t>
   </si>
@@ -1444,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1965,8 +1965,11 @@
       <c r="C32" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="E32" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>119</v>
       </c>
@@ -1976,8 +1979,11 @@
       <c r="C33" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="E33" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>122</v>
       </c>
@@ -1990,8 +1996,11 @@
       <c r="D34" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="E34" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>126</v>
       </c>
@@ -2004,8 +2013,11 @@
       <c r="D35" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="380" x14ac:dyDescent="0.2">
+      <c r="E35" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="380" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>130</v>
       </c>
@@ -2018,8 +2030,11 @@
       <c r="D36" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="E36" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>134</v>
       </c>
@@ -2032,8 +2047,11 @@
       <c r="D37" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="E37" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>138</v>
       </c>
@@ -2046,8 +2064,11 @@
       <c r="D38" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>142</v>
       </c>
@@ -2060,8 +2081,11 @@
       <c r="D39" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>146</v>
       </c>
@@ -2071,8 +2095,11 @@
       <c r="C40" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="E40" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>149</v>
       </c>
@@ -2085,8 +2112,11 @@
       <c r="D41" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>153</v>
       </c>
@@ -2099,8 +2129,11 @@
       <c r="D42" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="395" x14ac:dyDescent="0.2">
+      <c r="E42" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="395" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>157</v>
       </c>
@@ -2113,8 +2146,11 @@
       <c r="D43" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>161</v>
       </c>
@@ -2124,8 +2160,11 @@
       <c r="C44" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="E44" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>164</v>
       </c>
@@ -2138,8 +2177,11 @@
       <c r="D45" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>168</v>
       </c>
@@ -2152,8 +2194,11 @@
       <c r="D46" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>172</v>
       </c>
@@ -2166,8 +2211,11 @@
       <c r="D47" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>176</v>
       </c>
@@ -2180,8 +2228,11 @@
       <c r="D48" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>180</v>
       </c>
@@ -2194,8 +2245,11 @@
       <c r="D49" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="E49" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>184</v>
       </c>
@@ -2208,8 +2262,11 @@
       <c r="D50" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="E50" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>188</v>
       </c>
@@ -2222,8 +2279,11 @@
       <c r="D51" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>192</v>
       </c>
@@ -2236,8 +2296,11 @@
       <c r="D52" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>196</v>
       </c>
@@ -2251,7 +2314,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="288" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="288" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>200</v>
       </c>
@@ -2265,7 +2328,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>204</v>
       </c>
@@ -2279,7 +2342,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="288" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="288" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>208</v>
       </c>

--- a/sbs/openai_davinci_003_wortega_instruct_rugpt_large.xlsx
+++ b/sbs/openai_davinci_003_wortega_instruct_rugpt_large.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexkuk/proj/rulm-sbs/sbs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25601DF-E3A2-CA42-AA5E-AB9DA78F46DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CDFCF9-5202-1F4D-9F5E-95C1CC88AD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
